--- a/Curso R y ams-math o math mode/scripts/roboscasa.xlsx
+++ b/Curso R y ams-math o math mode/scripts/roboscasa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Fecha</t>
   </si>
@@ -41,16 +41,13 @@
   <si>
     <t>Gomez</t>
   </si>
-  <si>
-    <t>NA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -172,7 +169,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,9 +1291,6 @@
       </c>
       <c r="D47">
         <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
